--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col4a5-Cd93.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col4a5-Cd93.xlsx
@@ -537,16 +537,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.1821393333333333</v>
+        <v>0.134653</v>
       </c>
       <c r="H2">
-        <v>0.546418</v>
+        <v>0.403959</v>
       </c>
       <c r="I2">
-        <v>0.0284795966621386</v>
+        <v>0.0184956077859211</v>
       </c>
       <c r="J2">
-        <v>0.02847959666213861</v>
+        <v>0.01849560778592109</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>169.629438</v>
+        <v>209.26237</v>
       </c>
       <c r="N2">
-        <v>508.888314</v>
+        <v>627.78711</v>
       </c>
       <c r="O2">
-        <v>0.7428377317484701</v>
+        <v>0.8127157202241573</v>
       </c>
       <c r="P2">
-        <v>0.7428377317484702</v>
+        <v>0.8127157202241573</v>
       </c>
       <c r="Q2">
-        <v>30.896192751028</v>
+        <v>28.17780590761</v>
       </c>
       <c r="R2">
-        <v>278.065734759252</v>
+        <v>253.60025316849</v>
       </c>
       <c r="S2">
-        <v>0.02115571898561434</v>
+        <v>0.01503167120271839</v>
       </c>
       <c r="T2">
-        <v>0.02115571898561435</v>
+        <v>0.01503167120271839</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.1821393333333333</v>
+        <v>0.134653</v>
       </c>
       <c r="H3">
-        <v>0.546418</v>
+        <v>0.403959</v>
       </c>
       <c r="I3">
-        <v>0.0284795966621386</v>
+        <v>0.0184956077859211</v>
       </c>
       <c r="J3">
-        <v>0.02847959666213861</v>
+        <v>0.01849560778592109</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.9848756666666665</v>
+        <v>0.9848756666666668</v>
       </c>
       <c r="N3">
-        <v>2.954626999999999</v>
+        <v>2.954627</v>
       </c>
       <c r="O3">
-        <v>0.004312947180081614</v>
+        <v>0.003824977881910862</v>
       </c>
       <c r="P3">
-        <v>0.004312947180081614</v>
+        <v>0.003824977881910862</v>
       </c>
       <c r="Q3">
-        <v>0.1793845973428888</v>
+        <v>0.1326164631436667</v>
       </c>
       <c r="R3">
-        <v>1.614461376086</v>
+        <v>1.193548168293</v>
       </c>
       <c r="S3">
-        <v>0.0001228309961138324</v>
+        <v>7.074529069364652E-05</v>
       </c>
       <c r="T3">
-        <v>0.0001228309961138324</v>
+        <v>7.074529069364651E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.1821393333333333</v>
+        <v>0.134653</v>
       </c>
       <c r="H4">
-        <v>0.546418</v>
+        <v>0.403959</v>
       </c>
       <c r="I4">
-        <v>0.0284795966621386</v>
+        <v>0.0184956077859211</v>
       </c>
       <c r="J4">
-        <v>0.02847959666213861</v>
+        <v>0.01849560778592109</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.118221666666667</v>
+        <v>1.763846666666667</v>
       </c>
       <c r="N4">
-        <v>9.354665000000001</v>
+        <v>5.291539999999999</v>
       </c>
       <c r="O4">
-        <v>0.01365525192599884</v>
+        <v>0.006850280411451801</v>
       </c>
       <c r="P4">
-        <v>0.01365525192599884</v>
+        <v>0.006850280411451801</v>
       </c>
       <c r="Q4">
-        <v>0.5679508155522223</v>
+        <v>0.2375072452066666</v>
       </c>
       <c r="R4">
-        <v>5.11155733997</v>
+        <v>2.13756520686</v>
       </c>
       <c r="S4">
-        <v>0.0003888960671723383</v>
+        <v>0.0001267000997137907</v>
       </c>
       <c r="T4">
-        <v>0.0003888960671723384</v>
+        <v>0.0001267000997137907</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.1821393333333333</v>
+        <v>0.134653</v>
       </c>
       <c r="H5">
-        <v>0.546418</v>
+        <v>0.403959</v>
       </c>
       <c r="I5">
-        <v>0.0284795966621386</v>
+        <v>0.0184956077859211</v>
       </c>
       <c r="J5">
-        <v>0.02847959666213861</v>
+        <v>0.01849560778592109</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>54.620752</v>
+        <v>45.474231</v>
       </c>
       <c r="N5">
-        <v>163.862256</v>
+        <v>136.422693</v>
       </c>
       <c r="O5">
-        <v>0.2391940691454494</v>
+        <v>0.1766090214824801</v>
       </c>
       <c r="P5">
-        <v>0.2391940691454494</v>
+        <v>0.1766090214824801</v>
       </c>
       <c r="Q5">
-        <v>9.948587355445333</v>
+        <v>6.123241626842999</v>
       </c>
       <c r="R5">
-        <v>89.53728619900799</v>
+        <v>55.10917464158699</v>
       </c>
       <c r="S5">
-        <v>0.006812150613238091</v>
+        <v>0.003266491192795265</v>
       </c>
       <c r="T5">
-        <v>0.006812150613238092</v>
+        <v>0.003266491192795264</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>11.862272</v>
       </c>
       <c r="I6">
-        <v>0.618267923195393</v>
+        <v>0.5431242536047317</v>
       </c>
       <c r="J6">
-        <v>0.6182679231953931</v>
+        <v>0.5431242536047317</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>169.629438</v>
+        <v>209.26237</v>
       </c>
       <c r="N6">
-        <v>508.888314</v>
+        <v>627.78711</v>
       </c>
       <c r="O6">
-        <v>0.7428377317484701</v>
+        <v>0.8127157202241573</v>
       </c>
       <c r="P6">
-        <v>0.7428377317484702</v>
+        <v>0.8127157202241573</v>
       </c>
       <c r="Q6">
-        <v>670.7301775877121</v>
+        <v>827.4423841015467</v>
       </c>
       <c r="R6">
-        <v>6036.571598289408</v>
+        <v>7446.981456913921</v>
       </c>
       <c r="S6">
-        <v>0.4592727416793031</v>
+        <v>0.4414056189395774</v>
       </c>
       <c r="T6">
-        <v>0.4592727416793033</v>
+        <v>0.4414056189395774</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>11.862272</v>
       </c>
       <c r="I7">
-        <v>0.618267923195393</v>
+        <v>0.5431242536047317</v>
       </c>
       <c r="J7">
-        <v>0.6182679231953931</v>
+        <v>0.5431242536047317</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9848756666666665</v>
+        <v>0.9848756666666668</v>
       </c>
       <c r="N7">
-        <v>2.954626999999999</v>
+        <v>2.954627</v>
       </c>
       <c r="O7">
-        <v>0.004312947180081614</v>
+        <v>0.003824977881910862</v>
       </c>
       <c r="P7">
-        <v>0.004312947180081614</v>
+        <v>0.003824977881910862</v>
       </c>
       <c r="Q7">
-        <v>3.894287681393778</v>
+        <v>3.894287681393779</v>
       </c>
       <c r="R7">
-        <v>35.048589132544</v>
+        <v>35.04858913254401</v>
       </c>
       <c r="S7">
-        <v>0.002666556895880486</v>
+        <v>0.002077438257167445</v>
       </c>
       <c r="T7">
-        <v>0.002666556895880487</v>
+        <v>0.002077438257167445</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>11.862272</v>
       </c>
       <c r="I8">
-        <v>0.618267923195393</v>
+        <v>0.5431242536047317</v>
       </c>
       <c r="J8">
-        <v>0.6182679231953931</v>
+        <v>0.5431242536047317</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.118221666666667</v>
+        <v>1.763846666666667</v>
       </c>
       <c r="N8">
-        <v>9.354665000000001</v>
+        <v>5.291539999999999</v>
       </c>
       <c r="O8">
-        <v>0.01365525192599884</v>
+        <v>0.006850280411451801</v>
       </c>
       <c r="P8">
-        <v>0.01365525192599884</v>
+        <v>0.006850280411451801</v>
       </c>
       <c r="Q8">
-        <v>12.32973118876445</v>
+        <v>6.974409642097778</v>
       </c>
       <c r="R8">
-        <v>110.96758069888</v>
+        <v>62.76968677888</v>
       </c>
       <c r="S8">
-        <v>0.008442604248997196</v>
+        <v>0.003720553435452874</v>
       </c>
       <c r="T8">
-        <v>0.008442604248997196</v>
+        <v>0.003720553435452874</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>11.862272</v>
       </c>
       <c r="I9">
-        <v>0.618267923195393</v>
+        <v>0.5431242536047317</v>
       </c>
       <c r="J9">
-        <v>0.6182679231953931</v>
+        <v>0.5431242536047317</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>54.620752</v>
+        <v>45.474231</v>
       </c>
       <c r="N9">
-        <v>163.862256</v>
+        <v>136.422693</v>
       </c>
       <c r="O9">
-        <v>0.2391940691454494</v>
+        <v>0.1766090214824801</v>
       </c>
       <c r="P9">
-        <v>0.2391940691454494</v>
+        <v>0.1766090214824801</v>
       </c>
       <c r="Q9">
-        <v>215.9754056895147</v>
+        <v>179.809232370944</v>
       </c>
       <c r="R9">
-        <v>1943.778651205632</v>
+        <v>1618.283091338496</v>
       </c>
       <c r="S9">
-        <v>0.1478860203712122</v>
+        <v>0.09592064297253403</v>
       </c>
       <c r="T9">
-        <v>0.1478860203712123</v>
+        <v>0.09592064297253403</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.259202333333334</v>
+        <v>3.191525333333333</v>
       </c>
       <c r="H10">
-        <v>6.777607000000001</v>
+        <v>9.574576</v>
       </c>
       <c r="I10">
-        <v>0.3532524801424684</v>
+        <v>0.4383801386093472</v>
       </c>
       <c r="J10">
-        <v>0.3532524801424684</v>
+        <v>0.4383801386093472</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>169.629438</v>
+        <v>209.26237</v>
       </c>
       <c r="N10">
-        <v>508.888314</v>
+        <v>627.78711</v>
       </c>
       <c r="O10">
-        <v>0.7428377317484701</v>
+        <v>0.8127157202241573</v>
       </c>
       <c r="P10">
-        <v>0.7428377317484702</v>
+        <v>0.8127157202241573</v>
       </c>
       <c r="Q10">
-        <v>383.227222131622</v>
+        <v>667.8661551683733</v>
       </c>
       <c r="R10">
-        <v>3449.044999184598</v>
+        <v>6010.79539651536</v>
       </c>
       <c r="S10">
-        <v>0.2624092710835527</v>
+        <v>0.3562784300818615</v>
       </c>
       <c r="T10">
-        <v>0.2624092710835528</v>
+        <v>0.3562784300818615</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.259202333333334</v>
+        <v>3.191525333333333</v>
       </c>
       <c r="H11">
-        <v>6.777607000000001</v>
+        <v>9.574576</v>
       </c>
       <c r="I11">
-        <v>0.3532524801424684</v>
+        <v>0.4383801386093472</v>
       </c>
       <c r="J11">
-        <v>0.3532524801424684</v>
+        <v>0.4383801386093472</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.9848756666666665</v>
+        <v>0.9848756666666668</v>
       </c>
       <c r="N11">
-        <v>2.954626999999999</v>
+        <v>2.954627</v>
       </c>
       <c r="O11">
-        <v>0.004312947180081614</v>
+        <v>0.003824977881910862</v>
       </c>
       <c r="P11">
-        <v>0.004312947180081614</v>
+        <v>0.003824977881910862</v>
       </c>
       <c r="Q11">
-        <v>2.225033404176555</v>
+        <v>3.143255640350223</v>
       </c>
       <c r="R11">
-        <v>20.025300637589</v>
+        <v>28.289300763152</v>
       </c>
       <c r="S11">
-        <v>0.001523559288087295</v>
+        <v>0.001676794334049771</v>
       </c>
       <c r="T11">
-        <v>0.001523559288087295</v>
+        <v>0.001676794334049771</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.259202333333334</v>
+        <v>3.191525333333333</v>
       </c>
       <c r="H12">
-        <v>6.777607000000001</v>
+        <v>9.574576</v>
       </c>
       <c r="I12">
-        <v>0.3532524801424684</v>
+        <v>0.4383801386093472</v>
       </c>
       <c r="J12">
-        <v>0.3532524801424684</v>
+        <v>0.4383801386093472</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.118221666666667</v>
+        <v>1.763846666666667</v>
       </c>
       <c r="N12">
-        <v>9.354665000000001</v>
+        <v>5.291539999999999</v>
       </c>
       <c r="O12">
-        <v>0.01365525192599884</v>
+        <v>0.006850280411451801</v>
       </c>
       <c r="P12">
-        <v>0.01365525192599884</v>
+        <v>0.006850280411451801</v>
       </c>
       <c r="Q12">
-        <v>7.04469366518389</v>
+        <v>5.629361320782222</v>
       </c>
       <c r="R12">
-        <v>63.40224298665501</v>
+        <v>50.66425188704</v>
       </c>
       <c r="S12">
-        <v>0.004823751609829309</v>
+        <v>0.003003026876285136</v>
       </c>
       <c r="T12">
-        <v>0.00482375160982931</v>
+        <v>0.003003026876285136</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.259202333333334</v>
+        <v>3.191525333333333</v>
       </c>
       <c r="H13">
-        <v>6.777607000000001</v>
+        <v>9.574576</v>
       </c>
       <c r="I13">
-        <v>0.3532524801424684</v>
+        <v>0.4383801386093472</v>
       </c>
       <c r="J13">
-        <v>0.3532524801424684</v>
+        <v>0.4383801386093472</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>54.620752</v>
+        <v>45.474231</v>
       </c>
       <c r="N13">
-        <v>163.862256</v>
+        <v>136.422693</v>
       </c>
       <c r="O13">
-        <v>0.2391940691454494</v>
+        <v>0.1766090214824801</v>
       </c>
       <c r="P13">
-        <v>0.2391940691454494</v>
+        <v>0.1766090214824801</v>
       </c>
       <c r="Q13">
-        <v>123.3993303668213</v>
+        <v>145.132160250352</v>
       </c>
       <c r="R13">
-        <v>1110.593973301392</v>
+        <v>1306.189442253168</v>
       </c>
       <c r="S13">
-        <v>0.08449589816099906</v>
+        <v>0.07742188731715079</v>
       </c>
       <c r="T13">
-        <v>0.08449589816099908</v>
+        <v>0.07742188731715079</v>
       </c>
     </row>
   </sheetData>
